--- a/dataset/custom.xlsx
+++ b/dataset/custom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\matching\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE78C2-CA7B-467D-906C-31CD10969227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596FD42-0795-4875-9C7F-BF51C90F080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15550" yWindow="-16110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매칭결과" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>코트</t>
   </si>
@@ -61,12 +61,6 @@
     <t>김재현</t>
   </si>
   <si>
-    <t>이영호</t>
-  </si>
-  <si>
-    <t>정혜린</t>
-  </si>
-  <si>
     <t>이희연</t>
   </si>
   <si>
@@ -80,6 +74,25 @@
   </si>
   <si>
     <t>김재혁</t>
+  </si>
+  <si>
+    <t>강경원</t>
+  </si>
+  <si>
+    <t>정지윤</t>
+  </si>
+  <si>
+    <t>정우용</t>
+  </si>
+  <si>
+    <t>카밀라</t>
+  </si>
+  <si>
+    <t>정준섭</t>
+  </si>
+  <si>
+    <t>카밀라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,7 +467,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -527,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -547,13 +560,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -567,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -587,16 +600,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,16 +620,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -647,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,16 +680,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,16 +700,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,16 +720,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,16 +740,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,13 +763,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,16 +780,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/custom.xlsx
+++ b/dataset/custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\matching\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596FD42-0795-4875-9C7F-BF51C90F080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88274F3A-892B-40C6-912F-0AA9ABCC7A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매칭결과" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>코트</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>정준섭</t>
-  </si>
-  <si>
-    <t>카밀라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,7 +463,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,16 +496,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -523,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -540,16 +536,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,16 +556,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -580,16 +576,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -600,16 +596,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,16 +616,16 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,16 +636,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,13 +676,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -700,16 +696,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -740,16 +736,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +759,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,16 +776,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
